--- a/week7/day1/Automation Challenge/MockRegistrationForm/AutomationChallenge/customer.xlsx
+++ b/week7/day1/Automation Challenge/MockRegistrationForm/AutomationChallenge/customer.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27979BFB-4F67-4891-AD0B-D57EC39000D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CEB126-E60D-4979-A7F3-2E3AC797D49B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,58 +46,58 @@
     <t>Success</t>
   </si>
   <si>
-    <t>John Olguin</t>
-  </si>
-  <si>
-    <t>JohnMOlguin@dayrep.com</t>
-  </si>
-  <si>
-    <t>303-972-9715</t>
-  </si>
-  <si>
-    <t>4991 Tavern PlaceLittleton, CO 80123</t>
-  </si>
-  <si>
-    <t>Shoe Kicks</t>
-  </si>
-  <si>
-    <t>Design printing machine operator</t>
-  </si>
-  <si>
-    <t>Maria Holden</t>
-  </si>
-  <si>
-    <t>MariaGHolden@armyspy.com</t>
-  </si>
-  <si>
-    <t>361-296-1189</t>
-  </si>
-  <si>
-    <t>2276 Boone StreetRiviera, TX 78379</t>
-  </si>
-  <si>
-    <t>The Original House of Pies</t>
-  </si>
-  <si>
-    <t>Musician</t>
-  </si>
-  <si>
-    <t>Rhonda George</t>
-  </si>
-  <si>
-    <t>RhondaKGeorge@teleworm.us</t>
-  </si>
-  <si>
-    <t>979-779-2844</t>
-  </si>
-  <si>
-    <t>1202 Colonial DriveBryan, TX 77803</t>
-  </si>
-  <si>
-    <t>Landskip Yard Service</t>
-  </si>
-  <si>
-    <t>Elevator constructor</t>
+    <t>Corey Mendoza</t>
+  </si>
+  <si>
+    <t>CoreyWMendoza@jourrapide.com</t>
+  </si>
+  <si>
+    <t>802-824-8776</t>
+  </si>
+  <si>
+    <t>2477 Hardman RoadSouth Londonderry, VT 05155</t>
+  </si>
+  <si>
+    <t>Record &amp; Tape Outlet</t>
+  </si>
+  <si>
+    <t>County court judge</t>
+  </si>
+  <si>
+    <t>Eva Sayer</t>
+  </si>
+  <si>
+    <t>EvaFSayer@jourrapide.com</t>
+  </si>
+  <si>
+    <t>808-571-0174</t>
+  </si>
+  <si>
+    <t>3902 Arron Smith DriveHonolulu, HI 96814</t>
+  </si>
+  <si>
+    <t>Gino's Hamburgers</t>
+  </si>
+  <si>
+    <t>Safety and health practitioner</t>
+  </si>
+  <si>
+    <t>Hettie Trujillo</t>
+  </si>
+  <si>
+    <t>HettieTTrujillo@armyspy.com</t>
+  </si>
+  <si>
+    <t>302-584-1677</t>
+  </si>
+  <si>
+    <t>3491 Maud StreetNew Castle, DE 19720</t>
+  </si>
+  <si>
+    <t>Magik Gray</t>
+  </si>
+  <si>
+    <t>Gastroenterology nurse</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F4" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
